--- a/Files/Excel/Effa.xlsx
+++ b/Files/Excel/Effa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3A24BE-9669-44A1-B2AD-37DE00B06082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F1B37-0AA3-4468-9A49-F2EC8C26542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Effa M100</t>
+    <t>marca</t>
   </si>
   <si>
-    <t>marca</t>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Effa</t>
   </si>
 </sst>
 </file>
@@ -395,31 +398,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
